--- a/storage/data/sql.xlsx
+++ b/storage/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,38 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SELECT * 
+FROM "updated_table" 
+WHERE "id" = 789879 
+AND "client_name" = 'MC DONALDS'
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SELECT * FROM "updated_table"
+WHERE "id" = 789879
+AND "client_name" = 'MC DONALDS'
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SELECT *
+FROM "updated_table"
+WHERE "client_name" = 'MC DONALDS'
+ORDER BY "order_created_at" DESC
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/data/sql.xlsx
+++ b/storage/data/sql.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,27 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SELECT * 
+FROM "updated_table"
+WHERE "id" = 789879
+AND "client_name" = 'MC DONALDS'
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SELECT * 
+FROM "updated_table" 
+WHERE "id" = 789879 AND "client_name" = 'MC DONALDS' 
+LIMIT 1;</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
